--- a/_Lang_Korean/Lang/KR/Dialog/Drama/ashland.xlsx
+++ b/_Lang_Korean/Lang/KR/Dialog/Drama/ashland.xlsx
@@ -930,7 +930,7 @@
   </si>
   <si>
     <t xml:space="preserve">Before you go out to explore, I'll give you those scrolls.
-The "Scroll of Escape" allows you to leave Nefia and return to the surface. The "Scroll of Return" will transfer you to the lowest level of Nefia you have visited or to your home.
+The "Scroll of Evacuation" allows you to leave Nefia and return to the surface. The "Scroll of Return" will transfer you to the lowest level of Nefia you have visited or to your home.
 Both of these tools are indispensable for adventure. Make the most of them.</t>
   </si>
   <si>
@@ -2252,9 +2252,9 @@
   <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L370" sqref="L370"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomLeft" activeCell="K239" sqref="K239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
